--- a/figures/methods/yeast_media.xlsx
+++ b/figures/methods/yeast_media.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32600" yWindow="1560" windowWidth="24960" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1100" windowWidth="24960" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <charset val="129"/>
@@ -153,7 +153,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Malgun Gothic"/>
         <charset val="129"/>
@@ -190,13 +190,13 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
       <charset val="129"/>
@@ -524,24 +524,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" workbookViewId="0">
       <selection sqref="A1:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="69.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -557,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -565,17 +565,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -583,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -591,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -599,17 +599,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
@@ -625,7 +625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="70" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="160" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -633,17 +633,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -659,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -667,17 +667,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
@@ -685,7 +685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
@@ -693,17 +693,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -711,7 +711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -719,7 +719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>28</v>
       </c>
